--- a/biology/Botanique/Tropicoporus/Tropicoporus.xlsx
+++ b/biology/Botanique/Tropicoporus/Tropicoporus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tropicoporus est un genre de champignons de la famille des Hymenochaetaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces champignons se développent sur du bois d'Angiospermes et y provoquent une pourriture blanche[1].
-Les basidiocarpes sont annuels à pérennes, résupinés, effusés-réflexes à pileux, ellipsoïdes, largement ellipsoïdes à subglobuleuses, jaunâtres, à parois légèrement épaisses à épaisses, lisses. La surface est pileuse brune, grisâtre foncé à noire, hispide, tomenteuse, veloutée à glabre avec une croûte fissurée radialement. La surface des pores est jaune à brune[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces champignons se développent sur du bois d'Angiospermes et y provoquent une pourriture blanche.
+Les basidiocarpes sont annuels à pérennes, résupinés, effusés-réflexes à pileux, ellipsoïdes, largement ellipsoïdes à subglobuleuses, jaunâtres, à parois légèrement épaisses à épaisses, lisses. La surface est pileuse brune, grisâtre foncé à noire, hispide, tomenteuse, veloutée à glabre avec une croûte fissurée radialement. La surface des pores est jaune à brune.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est représenté en zone tropicale exclusivement[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est représenté en zone tropicale exclusivement.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit en 2015 par les mycologues chinois Li Wei Zhou, Yu Cheng Dai et Sheng Hua Wu. L'espèce type est Tropicoporus excentrodendri. Le nom Tropicoporus fait référence à l'aire de répartition exclusivement tropicale du genre[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 2015 par les mycologues chinois Li Wei Zhou, Yu Cheng Dai et Sheng Hua Wu. L'espèce type est Tropicoporus excentrodendri. Le nom Tropicoporus fait référence à l'aire de répartition exclusivement tropicale du genre.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (8 février 2024)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (8 février 2024) :
 Tropicoporus anchietanus (Decock &amp; Ryvarden) Y.C. Dai &amp; F. Wu, 2022
 Tropicoporus angustisulcatus Y.C. Dai &amp; F. Wu, 2022
 Tropicoporus appositus (Lév.) Y.C. Dai &amp; F. Wu, 2022
